--- a/Source/draw_results.xlsx
+++ b/Source/draw_results.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1947"/>
+  <dimension ref="A1:K1959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63413,6 +63413,402 @@
         <v>10</v>
       </c>
     </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B1948" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>35</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1948" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1948" t="inlineStr"/>
+      <c r="K1948" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B1949" s="2" t="n">
+        <v>43925</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1949" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1949" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1949" t="inlineStr"/>
+      <c r="K1949" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B1950" s="2" t="n">
+        <v>43929</v>
+      </c>
+      <c r="C1950" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1950" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1950" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1950" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1950" t="n">
+        <v>40</v>
+      </c>
+      <c r="I1950" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1950" t="inlineStr"/>
+      <c r="K1950" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B1951" s="2" t="n">
+        <v>43932</v>
+      </c>
+      <c r="C1951" t="n">
+        <v>28</v>
+      </c>
+      <c r="D1951" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1951" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1951" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1951" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1951" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1951" t="inlineStr"/>
+      <c r="K1951" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B1952" s="2" t="n">
+        <v>43936</v>
+      </c>
+      <c r="C1952" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1952" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1952" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1952" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1952" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1952" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1952" t="inlineStr"/>
+      <c r="K1952" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>1952</v>
+      </c>
+      <c r="B1953" s="2" t="n">
+        <v>43939</v>
+      </c>
+      <c r="C1953" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1953" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1953" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1953" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1953" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1953" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1953" t="inlineStr"/>
+      <c r="K1953" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B1954" s="2" t="n">
+        <v>43943</v>
+      </c>
+      <c r="C1954" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1954" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1954" t="n">
+        <v>33</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1954" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1954" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1954" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1954" t="inlineStr"/>
+      <c r="K1954" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>1954</v>
+      </c>
+      <c r="B1955" s="2" t="n">
+        <v>43946</v>
+      </c>
+      <c r="C1955" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1955" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1955" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>38</v>
+      </c>
+      <c r="G1955" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1955" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1955" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1955" t="inlineStr"/>
+      <c r="K1955" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B1956" s="2" t="n">
+        <v>43950</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1956" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1956" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>33</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1956" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1956" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1956" t="inlineStr"/>
+      <c r="K1956" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B1957" s="2" t="n">
+        <v>43953</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>38</v>
+      </c>
+      <c r="D1957" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1957" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1957" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1957" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1957" t="inlineStr"/>
+      <c r="K1957" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B1958" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1958" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1958" t="n">
+        <v>36</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1958" t="n">
+        <v>39</v>
+      </c>
+      <c r="I1958" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1958" t="inlineStr"/>
+      <c r="K1958" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B1959" s="2" t="n">
+        <v>43960</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>38</v>
+      </c>
+      <c r="D1959" t="n">
+        <v>29</v>
+      </c>
+      <c r="E1959" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1959" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1959" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1959" t="inlineStr"/>
+      <c r="K1959" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
